--- a/bytenew_api_autotest/data/lg_cw_cases.xlsx
+++ b/bytenew_api_autotest/data/lg_cw_cases.xlsx
@@ -27,7 +27,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>casename</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
   <si>
     <t>url</t>
   </si>
@@ -39,6 +45,12 @@
   </si>
   <si>
     <t>预期结果</t>
+  </si>
+  <si>
+    <t>转寄订单列表</t>
+  </si>
+  <si>
+    <t>验证转寄订单列表</t>
   </si>
   <si>
     <t>/api/redirect/order/pageList</t>
@@ -1011,44 +1023,58 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="64.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="55.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="34.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="14.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="18.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="64.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="55.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="34.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="b">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="b">
         <v>1</v>
       </c>
     </row>
